--- a/dist/document/dest/2020/10/doctors/58.xlsx
+++ b/dist/document/dest/2020/10/doctors/58.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>150</v>
       </c>
-      <c r="C2" s="1">
-        <v>655500</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>427</v>
       </c>
-      <c r="C3" s="1">
-        <v>2258830</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>864</v>
       </c>
-      <c r="C4" s="1">
-        <v>3974400</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>270</v>
       </c>
-      <c r="C5" s="1">
-        <v>1490400</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>1076000</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>25</v>
       </c>
-      <c r="C7" s="1">
-        <v>4537500</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>30</v>
       </c>
-      <c r="C8" s="1">
-        <v>6900</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>18</v>
       </c>
-      <c r="C9" s="1">
-        <v>903600</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>7</v>
       </c>
-      <c r="C10" s="1">
-        <v>329000</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>100</v>
       </c>
-      <c r="C11" s="1">
-        <v>310500</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>8</v>
       </c>
-      <c r="C12" s="1">
-        <v>516800</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>164</v>
       </c>
-      <c r="C13" s="1">
-        <v>178760</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>538</v>
       </c>
-      <c r="C14" s="1">
-        <v>581040</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>9</v>
       </c>
-      <c r="C15" s="1">
-        <v>695700</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>220</v>
       </c>
-      <c r="C16" s="1">
-        <v>2299000</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>419</v>
       </c>
-      <c r="C17" s="1">
-        <v>2023770</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>30</v>
       </c>
-      <c r="C18" s="1">
-        <v>89700</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="1">
-        <v>97000</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>2</v>
       </c>
-      <c r="C20" s="1">
-        <v>150000</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>30</v>
       </c>
-      <c r="C21" s="1">
-        <v>113850</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>48</v>
       </c>
-      <c r="C22" s="1">
-        <v>844800</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>1148</v>
       </c>
-      <c r="C23" s="1">
-        <v>4092620</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>148</v>
       </c>
-      <c r="C24" s="1">
-        <v>833980</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>3</v>
       </c>
-      <c r="C25" s="1">
-        <v>2439000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>30</v>
       </c>
-      <c r="C26" s="1">
-        <v>172500</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>454</v>
       </c>
-      <c r="C27" s="1">
-        <v>2497000</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>173</v>
       </c>
-      <c r="C28" s="1">
-        <v>935065</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>146</v>
       </c>
-      <c r="C29" s="1">
-        <v>2360820</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>300</v>
       </c>
-      <c r="C30" s="1">
-        <v>1449000</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>58</v>
       </c>
-      <c r="C31" s="1">
-        <v>261580</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>10</v>
       </c>
-      <c r="C32" s="1">
-        <v>12700</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>130</v>
       </c>
-      <c r="C33" s="1">
-        <v>717600</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>13</v>
       </c>
-      <c r="C34" s="1">
-        <v>150800</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>3</v>
       </c>
-      <c r="C35" s="1">
-        <v>1440000</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>5</v>
       </c>
-      <c r="C36" s="1">
-        <v>186000</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>285</v>
       </c>
-      <c r="C37" s="1">
-        <v>1881000</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>240</v>
       </c>
-      <c r="C38" s="1">
-        <v>1848000</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>1</v>
       </c>
-      <c r="C39" s="1">
-        <v>165000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>384</v>
       </c>
-      <c r="C40" s="1">
-        <v>1545600</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>60</v>
       </c>
-      <c r="C41" s="1">
-        <v>792000</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>858</v>
       </c>
-      <c r="C42" s="1">
-        <v>3354780</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>320</v>
       </c>
-      <c r="C43" s="1">
-        <v>5632000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>120</v>
       </c>
-      <c r="C44" s="1">
-        <v>475800</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>522</v>
       </c>
-      <c r="C45" s="1">
-        <v>2701350</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>1</v>
       </c>
-      <c r="C46" s="1">
-        <v>320000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>464</v>
       </c>
-      <c r="C47" s="1">
-        <v>8574720</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>32</v>
       </c>
-      <c r="C48" s="1">
-        <v>3219200</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>2</v>
       </c>
-      <c r="C49" s="1">
-        <v>13200</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>36</v>
       </c>
-      <c r="C50" s="1">
-        <v>1386000</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>1</v>
       </c>
-      <c r="C51" s="1">
-        <v>14300</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>780</v>
       </c>
-      <c r="C52" s="1">
-        <v>475800</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>28</v>
       </c>
-      <c r="C53" s="1">
-        <v>272888</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>30</v>
       </c>
-      <c r="C54" s="1">
-        <v>158700</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>6</v>
       </c>
-      <c r="C55" s="1">
-        <v>592800</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -999,7 +837,7 @@
         <v>10155</v>
       </c>
       <c r="C56" s="1">
-        <v>74104853</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/58.xlsx
+++ b/dist/document/dest/2020/10/doctors/58.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,447 +402,1071 @@
         <v>Acyclovir 800mg</v>
       </c>
       <c r="B2" s="1">
-        <v>150</v>
+        <v>85</v>
+      </c>
+      <c r="C2" s="1">
+        <v>371450</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Allerba (Ebastine 10mg)</v>
+        <v>Acyclovir 800mg</v>
       </c>
       <c r="B3" s="1">
-        <v>427</v>
+        <v>35</v>
+      </c>
+      <c r="C3" s="1">
+        <v>152950</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Bentarcin (Thymomodulin 80mg)</v>
+        <v>Acyclovir 800mg</v>
       </c>
       <c r="B4" s="1">
-        <v>864</v>
+        <v>85</v>
+      </c>
+      <c r="C4" s="1">
+        <v>371450</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Betnapin (Thymomodulin 80mg)</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>270</v>
+        <v>291</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1539390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Cetaphil 500ML</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>4</v>
+        <v>97</v>
+      </c>
+      <c r="C6" s="1">
+        <v>513130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Chamcromus 0,1% 10g (Tacrolimus)</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>25</v>
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>317400</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Clorpheniramin 4mg</v>
+        <v>Allerba (Ebastine 10mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>79350</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B9" s="1">
-        <v>18</v>
+        <v>30</v>
+      </c>
+      <c r="C9" s="1">
+        <v>69000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Dermovate PM</v>
+        <v>Alphachymotrypsin BVP 8400</v>
       </c>
       <c r="B10" s="1">
-        <v>7</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="1">
+        <v>69000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Destor (Desloratadine 5mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>100</v>
+        <v>150</v>
+      </c>
+      <c r="C11" s="1">
+        <v>690000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Dezor Shampoo 60ml (Ketoconazole 2%)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>8</v>
+        <v>210</v>
+      </c>
+      <c r="C12" s="1">
+        <v>966000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Dochicin (Colchicine 1mg)</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>164</v>
+        <v>180</v>
+      </c>
+      <c r="C13" s="1">
+        <v>828000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Doxycyclin 100mg</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>538</v>
+        <v>268</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1479360</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Ellgy H2O</v>
+        <v>Betnapin (Thymomodulin 80mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>9</v>
+        <v>90</v>
+      </c>
+      <c r="C15" s="1">
+        <v>496800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Esocon  20mg (Esomeprazole)</v>
+        <v>Cetaphil 500ML</v>
       </c>
       <c r="B16" s="1">
-        <v>220</v>
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>269000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Fenafex (Fexofenadine 180mg)</v>
+        <v>Cetaphil 500ML</v>
       </c>
       <c r="B17" s="1">
-        <v>419</v>
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>538000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Fluostine (Flunarizin 5mg)</v>
+        <v>Chamcromus 0,1% 10g (Tacrolimus)</v>
       </c>
       <c r="B18" s="1">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1815000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Fucidin H Cream 15g (Acid fusidic, hydrocortisone acetate)</v>
+        <v>Chamcromus 0,1% 10g (Tacrolimus)</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1633500</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Fucidine Cream 2% 15g</v>
+        <v>Chamcromus 0,1% 10g (Tacrolimus)</v>
       </c>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2178000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Hemoral (Diosmin, hesperidin)</v>
+        <v>Chamcromus 0,1% 10g (Tacrolimus)</v>
       </c>
       <c r="B21" s="1">
-        <v>30</v>
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>181500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>48</v>
+        <v>11</v>
+      </c>
+      <c r="C22" s="1">
+        <v>552200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
+        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>1148</v>
+        <v>3</v>
+      </c>
+      <c r="C23" s="1">
+        <v>150600</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Itametazin  5mg(Mequitazine)</v>
+        <v>Daktarin oral gel 10g (Miconazole 200mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>148</v>
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>251000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Kem dưỡng da RILASTIL DIFESA STERILE Cream 50ml</v>
+        <v>Dermovate PM</v>
       </c>
       <c r="B25" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C25" s="1">
+        <v>235000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B26" s="1">
         <v>30</v>
       </c>
+      <c r="C26" s="1">
+        <v>93150</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Liverterder (L-Cystine, choline hydrogen tartrate)</v>
+        <v>Destor (Desloratadine 5mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>454</v>
+        <v>60</v>
+      </c>
+      <c r="C27" s="1">
+        <v>186300</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Loxcip (Fexofenadine 180mg)</v>
+        <v>Dezor Shampoo 60ml (Ketoconazole 2%)</v>
       </c>
       <c r="B28" s="1">
-        <v>173</v>
+        <v>5</v>
+      </c>
+      <c r="C28" s="1">
+        <v>323000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Dezor Shampoo 60ml (Ketoconazole 2%)</v>
       </c>
       <c r="B29" s="1">
-        <v>146</v>
+        <v>2</v>
+      </c>
+      <c r="C29" s="1">
+        <v>129200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+        <v>Doxycyclin 100mg</v>
       </c>
       <c r="B30" s="1">
-        <v>300</v>
+        <v>216</v>
+      </c>
+      <c r="C30" s="1">
+        <v>233280</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Medrol 16mg (Methylprednisolone)</v>
+        <v>Doxycyclin 100mg</v>
       </c>
       <c r="B31" s="1">
-        <v>58</v>
+        <v>90</v>
+      </c>
+      <c r="C31" s="1">
+        <v>97200</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Medrol 4mg (Methylprednisolone)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B32" s="1">
         <v>10</v>
       </c>
+      <c r="C32" s="1">
+        <v>104500</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Mezondin (Thymomodulin 80mg)</v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B33" s="1">
-        <v>130</v>
+        <v>52</v>
+      </c>
+      <c r="C33" s="1">
+        <v>543400</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v xml:space="preserve">Millian </v>
+        <v>Esocon  20mg (Esomeprazole)</v>
       </c>
       <c r="B34" s="1">
-        <v>13</v>
+        <v>74</v>
+      </c>
+      <c r="C34" s="1">
+        <v>773300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Minoxidil 2%</v>
+        <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>3</v>
+        <v>130</v>
+      </c>
+      <c r="C35" s="1">
+        <v>627900</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Nizoral Cream 10g (Ketoconazole)</v>
+        <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>5</v>
+        <v>269</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1299270</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>285</v>
+        <v>15</v>
+      </c>
+      <c r="C37" s="1">
+        <v>72450</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Oratane (Isotretinoin 5mg)</v>
+        <v>Fenafex (Fexofenadine 180mg)</v>
       </c>
       <c r="B38" s="1">
-        <v>240</v>
+        <v>164</v>
+      </c>
+      <c r="C38" s="1">
+        <v>792120</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>PhilDesona (Budesonide 10ml)</v>
+        <v>Fucidin H Cream 15g (Acid fusidic, hydrocortisone acetate)</v>
       </c>
       <c r="B39" s="1">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="C39" s="1">
+        <v>194000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Fucidine Cream 2% 15g</v>
       </c>
       <c r="B40" s="1">
-        <v>384</v>
+        <v>2</v>
+      </c>
+      <c r="C40" s="1">
+        <v>150000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Piascledin 300mg (Avocado,soybean unsaponifiable)</v>
+        <v>Hemoral (Diosmin, hesperidin)</v>
       </c>
       <c r="B41" s="1">
-        <v>60</v>
+        <v>90</v>
+      </c>
+      <c r="C41" s="1">
+        <v>341550</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Proginale (L-Cystine 500mg)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B42" s="1">
-        <v>858</v>
+        <v>642</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2288730</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Raxnazole (Itraconazole 100mg)</v>
+        <v>Ipec-Plus (Polymaltose+folic acid+zinc)</v>
       </c>
       <c r="B43" s="1">
-        <v>320</v>
+        <v>270</v>
+      </c>
+      <c r="C43" s="1">
+        <v>962550</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Safena (Atorvastatin 10mg)</v>
+        <v>Itametazin  5mg(Mequitazine)</v>
       </c>
       <c r="B44" s="1">
-        <v>120</v>
+        <v>82</v>
+      </c>
+      <c r="C44" s="1">
+        <v>462070</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Seromin (Vitamin A, C, E)</v>
+        <v>Itametazin  5mg(Mequitazine)</v>
       </c>
       <c r="B45" s="1">
-        <v>522</v>
+        <v>105</v>
+      </c>
+      <c r="C45" s="1">
+        <v>591675</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Spectraban Spf 50+ 100g</v>
+        <v>Itametazin  5mg(Mequitazine)</v>
       </c>
       <c r="B46" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C46" s="1">
+        <v>84525</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Spulit (Itraconazol 100mg)</v>
+        <v>Kem dưỡng chống rạn da RILASTIL STRETCH MARK Cream 75ml</v>
       </c>
       <c r="B47" s="1">
-        <v>464</v>
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>914000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>T3-mycin 25g ( Clindamycin phosphate 1.2%)</v>
+        <v>Kem dưỡng da RILASTIL DIFESA STERILE Cream 50ml</v>
       </c>
       <c r="B48" s="1">
-        <v>32</v>
+        <v>1</v>
+      </c>
+      <c r="C48" s="1">
+        <v>813000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v xml:space="preserve">Thuốc Tím </v>
+        <v>Liverterder (L-Cystine, choline hydrogen tartrate)</v>
       </c>
       <c r="B49" s="1">
-        <v>2</v>
+        <v>30</v>
+      </c>
+      <c r="C49" s="1">
+        <v>165000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Upetal (Fluconazol 150mg)</v>
+        <v>Liverterder (L-Cystine, choline hydrogen tartrate)</v>
       </c>
       <c r="B50" s="1">
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="C50" s="1">
+        <v>154000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Vaseline pm</v>
+        <v>Loxcip (Fexofenadine 180mg)</v>
       </c>
       <c r="B51" s="1">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="C51" s="1">
+        <v>81075</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Vitamin Pp 500mg(Nicotinamide)</v>
+        <v>Loxcip (Fexofenadine 180mg)</v>
       </c>
       <c r="B52" s="1">
-        <v>780</v>
+        <v>97</v>
+      </c>
+      <c r="C52" s="1">
+        <v>524285</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Vocfor (Lornoxicam 4mg)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B53" s="1">
-        <v>28</v>
+        <v>10</v>
+      </c>
+      <c r="C53" s="1">
+        <v>161700</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B54" s="1">
-        <v>30</v>
+        <v>42</v>
+      </c>
+      <c r="C54" s="1">
+        <v>679140</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Zitromax (Azithromycin 500mg)</v>
+        <v>Lucass 200 (Cefpodoxime)</v>
       </c>
       <c r="B55" s="1">
-        <v>6</v>
+        <v>14</v>
+      </c>
+      <c r="C55" s="1">
+        <v>226380</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B56" s="1">
+        <v>59</v>
+      </c>
+      <c r="C56" s="1">
+        <v>284970</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B57" s="1">
+        <v>120</v>
+      </c>
+      <c r="C57" s="1">
+        <v>579600</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B58" s="1">
+        <v>250</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1207500</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B59" s="1">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1">
+        <v>9020</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Medrol 16mg (Methylprednisolone)</v>
+      </c>
+      <c r="B60" s="1">
+        <v>9</v>
+      </c>
+      <c r="C60" s="1">
+        <v>40590</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B61" s="1">
+        <v>12</v>
+      </c>
+      <c r="C61" s="1">
+        <v>15180</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Metilone-4 (Methylprednisolone 4mg)</v>
+      </c>
+      <c r="B62" s="1">
+        <v>7</v>
+      </c>
+      <c r="C62" s="1">
+        <v>8855</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Mezondin (Thymomodulin 80mg)</v>
+      </c>
+      <c r="B63" s="1">
+        <v>20</v>
+      </c>
+      <c r="C63" s="1">
+        <v>110400</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v xml:space="preserve">Millian </v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v xml:space="preserve">Millian </v>
+      </c>
+      <c r="B65" s="1">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>34800</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>Minoxidil 2%</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1440000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>Minoxidil 2%</v>
+      </c>
+      <c r="B67" s="1">
+        <v>1</v>
+      </c>
+      <c r="C67" s="1">
+        <v>480000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>Noraquick (Gabapentin 300mg)</v>
+      </c>
+      <c r="B68" s="1">
+        <v>59</v>
+      </c>
+      <c r="C68" s="1">
+        <v>389400</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>Noraquick (Gabapentin 300mg)</v>
+      </c>
+      <c r="B69" s="1">
+        <v>135</v>
+      </c>
+      <c r="C69" s="1">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>Noraquick (Gabapentin 300mg)</v>
+      </c>
+      <c r="B70" s="1">
+        <v>220</v>
+      </c>
+      <c r="C70" s="1">
+        <v>1452000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>Oratane (Isotretinoin 5mg)</v>
+      </c>
+      <c r="B71" s="1">
+        <v>68</v>
+      </c>
+      <c r="C71" s="1">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>Oratane (Isotretinoin 5mg)</v>
+      </c>
+      <c r="B72" s="1">
+        <v>30</v>
+      </c>
+      <c r="C72" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B73" s="1">
+        <v>100</v>
+      </c>
+      <c r="C73" s="1">
+        <v>402500</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B74" s="1">
+        <v>190</v>
+      </c>
+      <c r="C74" s="1">
+        <v>764750</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B75" s="1">
+        <v>158</v>
+      </c>
+      <c r="C75" s="1">
+        <v>635950</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>Proginale (L-Cystine 500mg)</v>
+      </c>
+      <c r="B76" s="1">
+        <v>386</v>
+      </c>
+      <c r="C76" s="1">
+        <v>1509260</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>Proginale (L-Cystine 500mg)</v>
+      </c>
+      <c r="B77" s="1">
+        <v>330</v>
+      </c>
+      <c r="C77" s="1">
+        <v>1290300</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>Raxnazole (Itraconazole 100mg)</v>
+      </c>
+      <c r="B78" s="1">
+        <v>20</v>
+      </c>
+      <c r="C78" s="1">
+        <v>352000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>Raxnazole (Itraconazole 100mg)</v>
+      </c>
+      <c r="B79" s="1">
+        <v>15</v>
+      </c>
+      <c r="C79" s="1">
+        <v>264000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>Raxnazole (Itraconazole 100mg)</v>
+      </c>
+      <c r="B80" s="1">
+        <v>170</v>
+      </c>
+      <c r="C80" s="1">
+        <v>2992000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>Raxnazole (Itraconazole 100mg)</v>
+      </c>
+      <c r="B81" s="1">
+        <v>125</v>
+      </c>
+      <c r="C81" s="1">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B82" s="1">
+        <v>150</v>
+      </c>
+      <c r="C82" s="1">
+        <v>776250</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>Seromin (Vitamin A, C, E)</v>
+      </c>
+      <c r="B83" s="1">
+        <v>90</v>
+      </c>
+      <c r="C83" s="1">
+        <v>465750</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>Sporal (Itraconazole 100mg)</v>
+      </c>
+      <c r="B84" s="1">
+        <v>30</v>
+      </c>
+      <c r="C84" s="1">
+        <v>626100</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>Spulit (Itraconazol 100mg)</v>
+      </c>
+      <c r="B85" s="1">
+        <v>65</v>
+      </c>
+      <c r="C85" s="1">
+        <v>1201200</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>Spulit (Itraconazol 100mg)</v>
+      </c>
+      <c r="B86" s="1">
+        <v>258</v>
+      </c>
+      <c r="C86" s="1">
+        <v>4767840</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>Spulit (Itraconazol 100mg)</v>
+      </c>
+      <c r="B87" s="1">
+        <v>52</v>
+      </c>
+      <c r="C87" s="1">
+        <v>960960</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B88" s="1">
+        <v>4</v>
+      </c>
+      <c r="C88" s="1">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B89" s="1">
+        <v>4</v>
+      </c>
+      <c r="C89" s="1">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B90" s="1">
+        <v>20</v>
+      </c>
+      <c r="C90" s="1">
+        <v>303600</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>T3-mycin 25g ( Clindamycin phosphate 1.2%)</v>
+      </c>
+      <c r="B91" s="1">
+        <v>14</v>
+      </c>
+      <c r="C91" s="1">
+        <v>1408400</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>T3-mycin 25g ( Clindamycin phosphate 1.2%)</v>
+      </c>
+      <c r="B92" s="1">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1">
+        <v>301800</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B93" s="1">
+        <v>19</v>
+      </c>
+      <c r="C93" s="1">
+        <v>731500</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>Upetal (Fluconazol 150mg)</v>
+      </c>
+      <c r="B94" s="1">
+        <v>8</v>
+      </c>
+      <c r="C94" s="1">
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>Vitamin Pp 500mg(Nicotinamide)</v>
+      </c>
+      <c r="B95" s="1">
+        <v>180</v>
+      </c>
+      <c r="C95" s="1">
+        <v>109800</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B96" s="1">
+        <v>20</v>
+      </c>
+      <c r="C96" s="1">
+        <v>194920</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+      </c>
+      <c r="B97" s="1">
+        <v>420</v>
+      </c>
+      <c r="C97" s="1">
+        <v>2221800</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B56" s="1">
-        <v>10155</v>
-      </c>
-      <c r="C56" s="1">
-        <v>NaN</v>
+      <c r="B98" s="1">
+        <v>8080</v>
+      </c>
+      <c r="C98" s="1">
+        <v>63217225</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C56"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C98"/>
   </ignoredErrors>
 </worksheet>
 </file>